--- a/Import/IMOcrewlistForm5.xlsx
+++ b/Import/IMOcrewlistForm5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BC28AD-6C0B-4398-B82B-9ACF8DD9F582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37B577C-47F2-4701-A97A-5A4D22AB8CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="108" yWindow="96" windowWidth="22932" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,10 +29,10 @@
     <t>Rank</t>
   </si>
   <si>
-    <t>Ship Name</t>
+    <t>Email</t>
   </si>
   <si>
-    <t>Email</t>
+    <t>Ship Number</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,10 +549,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/Import/IMOcrewlistForm5.xlsx
+++ b/Import/IMOcrewlistForm5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37B577C-47F2-4701-A97A-5A4D22AB8CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71202705-19E1-40B0-B546-D8795A39EE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="108" yWindow="96" windowWidth="22932" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>CREW LIST</t>
   </si>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>Email</t>
-  </si>
-  <si>
-    <t>Ship Number</t>
   </si>
 </sst>
 </file>
@@ -131,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -159,12 +156,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -514,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,20 +516,18 @@
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -549,193 +538,170 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>

--- a/Import/IMOcrewlistForm5.xlsx
+++ b/Import/IMOcrewlistForm5.xlsx
@@ -1,32 +1,157 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71202705-19E1-40B0-B546-D8795A39EE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D9C8E5-5D57-44B5-B9E5-6360C4648301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="96" windowWidth="22932" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="72" yWindow="48" windowWidth="22872" windowHeight="12192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arrival Crewlist" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_Hlk424867651" localSheetId="0">'Arrival Crewlist'!$A$19</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>CREW LIST</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Crew Name</t>
-  </si>
-  <si>
-    <t>Rank</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>8. Name (Surname, Given names)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  11. Date and place of birth</t>
+  </si>
+  <si>
+    <t>7. No</t>
+  </si>
+  <si>
+    <t>9. Rank / Rating</t>
+  </si>
+  <si>
+    <t>10. Nationality</t>
+  </si>
+  <si>
+    <t>ARRIVAL CREW LIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Expiry Date</t>
+  </si>
+  <si>
+    <t>Date of Joining</t>
+  </si>
+  <si>
+    <t>Place of Joining</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Passport No.  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Date and signature by Master, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Authorized agent or officer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">3. Date of Arrival / </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Departure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                                                         </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Name of Ship:  </t>
+  </si>
+  <si>
+    <t>4. Flag :</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Port of Arrival / </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Departure:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. Port Arrived from / </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>of Destination</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">:                                                                                                  </t>
+    </r>
+  </si>
+  <si>
+    <t>Capt.:</t>
+  </si>
+  <si>
+    <t>Master of :</t>
   </si>
   <si>
     <t>Email</t>
@@ -36,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,22 +170,117 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -77,7 +297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -86,12 +306,53 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="medium">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -100,11 +361,61 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -113,59 +424,253 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -182,6 +687,85 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>762885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="TCC Flag">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6454140" y="38100"/>
+          <a:ext cx="1729740" cy="724785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -505,205 +1089,594 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="22.109375" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:14" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+    </row>
+    <row r="3" spans="1:14" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="47"/>
+      <c r="K3" s="34"/>
+    </row>
+    <row r="4" spans="1:14" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="53"/>
+      <c r="N4" s="33"/>
+    </row>
+    <row r="5" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="C5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="F5" s="35"/>
+      <c r="G5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>1</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+    </row>
+    <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+    </row>
+    <row r="8" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="B9" s="3"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+      <c r="B11" s="3"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="B13" s="3"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+    </row>
+    <row r="25" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+    </row>
+    <row r="26" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="32">
+        <v>21</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="32">
+        <v>22</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="32">
+        <v>23</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="32">
+        <v>24</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+    </row>
+    <row r="30" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="32">
+        <v>25</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <v>26</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="11">
+        <v>27</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="21"/>
+      <c r="F36" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="21"/>
+      <c r="F37" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="10">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:J4"/>
   </mergeCells>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Import/IMOcrewlistForm5.xlsx
+++ b/Import/IMOcrewlistForm5.xlsx
@@ -1,16 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71202705-19E1-40B0-B546-D8795A39EE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\All Projects\TCCCMS-master\TCCCMS\Import\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02A6596-FBBC-41D6-9813-BB4824911FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="96" windowWidth="22932" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="168" yWindow="768" windowWidth="22872" windowHeight="12192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -130,6 +140,9 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -163,16 +176,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -195,44 +205,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -260,31 +270,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -312,23 +305,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -340,166 +316,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -507,203 +459,196 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="10"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="10"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="10"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="10"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="11"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="10"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="10"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="12"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>